--- a/ETC v2/v2.2/DStage_ETC_v2.2_calibration.xlsx
+++ b/ETC v2/v2.2/DStage_ETC_v2.2_calibration.xlsx
@@ -12,32 +12,236 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>Calibration should be performed with throttle motor disconnected!</t>
   </si>
   <si>
-    <t>Please fill in fielsd in</t>
-  </si>
-  <si>
-    <t>yellow</t>
+    <t>Throttle</t>
+  </si>
+  <si>
+    <t>value type</t>
   </si>
   <si>
     <t>info</t>
   </si>
   <si>
+    <t>Hints:</t>
+  </si>
+  <si>
+    <t>Throttle sensor voltage when fully closed</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>- DO NOT connect throttle motor yet!</t>
+  </si>
+  <si>
+    <t>Throttle sensor voltage when fully oppened</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>- "pot" = "potentiometer"</t>
+  </si>
+  <si>
+    <t>required gain for throttle input</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
     <t>Calibration procedure to get you in the ball park:</t>
   </si>
   <si>
-    <t>Throttle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Step 1 - using pot </t>
+    <t>required offset for throttle input</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - connect the throttle and gas pedal inputs and power to the board (power meaning +5V and GND). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep the throttle closed and measure the voltage at </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">TH </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>input. Put the measured value into the field below.</t>
+    </r>
+  </si>
+  <si>
+    <t>Throttle sensor voltage range</t>
+  </si>
+  <si>
+    <t>calculated</t>
+  </si>
+  <si>
+    <t>target when closed</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 2</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep the throttle oppened manually and measure the voltage at </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">TH </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>input. Put the measured vakue into the field below.</t>
+    </r>
+  </si>
+  <si>
+    <t>target when oppened</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>target range</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep the gas pedal not pressed and measure the voltage at </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">GP </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>input. Put the measured value into the field below.</t>
+    </r>
+  </si>
+  <si>
+    <t>series diode offset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep the throttle oppened manually and measure the voltage at TH input. Put the measured vakue into the field below.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gas pedal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 5</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - using pot </t>
     </r>
     <r>
       <rPr>
@@ -71,24 +275,32 @@
     </r>
   </si>
   <si>
-    <t>Throttle sensor voltage when fully closed</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>Throttle sensor voltage when fully oppened</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Step 2 - with closed throttle use </t>
+    <t>Gas pedal voltage when not pressed</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Gas pedal voltage when fully pressed</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 6</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - with closed throttle use </t>
     </r>
     <r>
       <rPr>
@@ -122,18 +334,23 @@
     </r>
   </si>
   <si>
-    <t>required gain for throttle input</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Step 3 - open the throttle manually and check voltage at test point </t>
+    <t>required gain for gas pedal input</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 7</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - open the throttle manually and check voltage at test point </t>
     </r>
     <r>
       <rPr>
@@ -152,18 +369,26 @@
     </r>
   </si>
   <si>
-    <t>required offset for throttle input</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Step 4- using pot </t>
+    <t>required offset gas pedal input</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 8</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">- using pot </t>
     </r>
     <r>
       <rPr>
@@ -197,33 +422,29 @@
     </r>
   </si>
   <si>
-    <t>Throttle sensor voltage range</t>
-  </si>
-  <si>
-    <t>calculated</t>
-  </si>
-  <si>
-    <t>target when closed</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>Step 5 - with gas pedal de-pressed use PR3 to set the voltage at test point C to the below value</t>
-  </si>
-  <si>
-    <t>target when oppened</t>
-  </si>
-  <si>
-    <t>target range</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">Step 6 - press the gas pedal and check voltage at test point </t>
+    <t>Gas pedal voltage range</t>
+  </si>
+  <si>
+    <t>target when not pressed</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 9</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - with gas pedal de-pressed use PR3 to set the voltage at test point </t>
     </r>
     <r>
       <rPr>
@@ -238,38 +459,46 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
+      <t xml:space="preserve"> to the below value</t>
+    </r>
+  </si>
+  <si>
+    <t>target when fully pressed</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 10</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - press the gas pedal and check voltage at test point </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
       <t>, it should be close to the below value</t>
     </r>
-  </si>
-  <si>
-    <t>series diode offset</t>
-  </si>
-  <si>
-    <t>Gas pedal</t>
-  </si>
-  <si>
-    <t>Gas pedal voltage when not pressed</t>
-  </si>
-  <si>
-    <t>Gas pedal voltage when fully pressed</t>
-  </si>
-  <si>
-    <t>required gain for gas pedal input</t>
-  </si>
-  <si>
-    <t>required offset gas pedal input</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>Gas pedal voltage range</t>
-  </si>
-  <si>
-    <t>target when not pressed</t>
-  </si>
-  <si>
-    <t>target when fully pressed</t>
   </si>
   <si>
     <t>k</t>
@@ -335,19 +564,12 @@
       <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -356,6 +578,13 @@
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans Mono&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -381,18 +610,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
     <fill>
@@ -431,6 +648,18 @@
         <bgColor rgb="FF6FA8DC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -438,17 +667,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -457,42 +680,45 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="2" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="2" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="2" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="2" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="2" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -727,354 +953,431 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c r="G3" s="5" t="s">
-        <v>4</v>
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <f>G9</f>
+        <v>0.885</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <f>G11</f>
+        <v>4.75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.885</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8">
-        <f>B9</f>
-        <v>2.571187181</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8">
+        <f>B12/B9</f>
+        <v>0.7761966365</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8">
+        <f>(B10-B13+B6*B3)/(B6+1)</f>
+        <v>2.571187181</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="6"/>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13">
+        <f>B4-B3</f>
+        <v>3.865</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.885</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="5">
         <v>4.75</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="10"/>
-      <c r="G7" s="11">
-        <f>B12</f>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="16">
+        <f>B10-B11</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="G15" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5">
+        <f>G13</f>
+        <v>1.2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="17">
+        <f>B7</f>
+        <v>2.571187181</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5">
+        <f>G15</f>
+        <v>3.5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="G19" s="19">
+        <f>B10</f>
         <v>4</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="14">
-        <f>B14/B11</f>
-        <v>0.7761966365</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="14">
-        <f>(B12-B15+B8*B5)/(B8+1)</f>
-        <v>2.571187181</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="11">
-        <f>B13</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="10"/>
-      <c r="G10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="18">
-        <f>B6-B5</f>
-        <v>3.865</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="8">
-        <f>B23</f>
-        <v>2.374095238</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="11">
-        <f>B26</f>
-        <v>4</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="21">
-        <f>B12-B13</f>
-        <v>3</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="20">
-        <v>0.12</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="11">
-        <f>B27</f>
-        <v>1.05</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>9</v>
+      <c r="H19" s="20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B20" s="8">
+        <f>B26/B23</f>
+        <v>1.282608696</v>
+      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="8">
+        <f>(B24-B27+B20*B17)/(B20+1)</f>
+        <v>2.374095238</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="19">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="G22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="13">
+        <f>B18-B17</f>
+        <v>2.3</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="17">
+        <f>B21</f>
+        <v>2.374095238</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1.05</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="19">
+        <f>B24</f>
+        <v>4</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="16">
+        <f>B24-B25</f>
+        <v>2.95</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="14">
-        <f>B28/B25</f>
-        <v>1.282608696</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="14">
-        <f>(B26-B29+B22*B19)/(B22+1)</f>
-        <v>2.374095238</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="18">
-        <f>B20-B19</f>
-        <v>2.3</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="20">
+      <c r="B27" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="19">
+        <f>B25</f>
         <v>1.05</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="21">
-        <f>B26-B27</f>
-        <v>2.95</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="20">
-        <v>0.12</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>21</v>
+      <c r="H27" s="20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1093,171 +1396,171 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3">
         <v>1.28</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3">
         <v>4.0</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3">
         <v>2.5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.0</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="F4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="21">
         <f>G2-G3</f>
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3">
         <v>1.2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3">
         <v>3.5</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="3">
         <v>3.5</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="3">
         <v>1.2</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="22">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="21">
         <f t="shared" ref="B8:B9" si="1">B$2*(B$3-B5)+B$3</f>
         <v>4.164</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="22">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="21">
         <f>G6-G7</f>
         <v>2.3</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>8</v>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="21">
         <f t="shared" si="1"/>
         <v>1.22</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="F10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="F10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="22">
         <f>G4/G8</f>
         <v>1.304347826</v>
       </c>
     </row>
     <row r="11">
-      <c r="F11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="22">
         <f>G6*G10</f>
         <v>4.565217391</v>
       </c>
     </row>
     <row r="12">
-      <c r="F12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="22">
         <f>G7*G10</f>
         <v>1.565217391</v>
       </c>
     </row>
     <row r="13">
-      <c r="F13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="F13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="22">
         <f>G6*G10-G2</f>
         <v>0.5652173913</v>
       </c>
     </row>
     <row r="14">
-      <c r="F14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="22">
         <f>G7*G10-G3</f>
         <v>0.5652173913</v>
       </c>

--- a/ETC v2/v2.2/DStage_ETC_v2.2_calibration.xlsx
+++ b/ETC v2/v2.2/DStage_ETC_v2.2_calibration.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t>Calibration should be performed with throttle motor disconnected!</t>
   </si>
@@ -26,479 +26,508 @@
     <t>info</t>
   </si>
   <si>
+    <t>Throttle sensor voltage when fully closed</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Calibration procedure to get you in the ball park:</t>
+  </si>
+  <si>
+    <t>Throttle sensor voltage when fully oppened</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 0</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - connect the throttle and gas pedal inputs and power to the board (power meaning +5V and GND). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep the throttle closed and measure the voltage at </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">TH </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>input. Put the measured value into the field below.</t>
+    </r>
+  </si>
+  <si>
+    <t>required gain for throttle input</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>required offset for throttle input</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 2</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep the throttle oppened manually and measure the voltage at </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">TH </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>input. Put the measured vakue into the field below.</t>
+    </r>
+  </si>
+  <si>
+    <t>Throttle sensor voltage range</t>
+  </si>
+  <si>
+    <t>calculated</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep the gas pedal not pressed and measure the voltage at </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">GP </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>input. Put the measured value into the field below.</t>
+    </r>
+  </si>
+  <si>
+    <t>target when closed</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>target when oppened</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 4</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Keep the throttle oppened manually and measure the voltage at TH input. Put the measured vakue into the field below.</t>
+    </r>
+  </si>
+  <si>
+    <t>target range</t>
+  </si>
+  <si>
+    <t>series diode offset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 5</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - using pot </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>PR2</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> set the voltage in test point </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> to the below value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 6</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - with closed throttle use </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>PR1</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> to set the voltage at test point </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> to the below value</t>
+    </r>
+  </si>
+  <si>
+    <t>Gas pedal</t>
+  </si>
+  <si>
+    <t>Gas pedal voltage when not pressed</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 7</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - open the throttle manually and check voltage at test point </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, it should be close to the below value</t>
+    </r>
+  </si>
+  <si>
+    <t>Gas pedal voltage when fully pressed</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 8</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">- using pot </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>PR4</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> set the voltage in test point </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> to the below value</t>
+    </r>
+  </si>
+  <si>
+    <t>required gain for gas pedal input</t>
+  </si>
+  <si>
+    <t>required offset gas pedal input</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 9</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - with gas pedal de-pressed use PR3 to set the voltage at test point </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> to the below value</t>
+    </r>
+  </si>
+  <si>
+    <t>Gas pedal voltage range</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 10</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - press the gas pedal and check voltage at test point </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>, it should be close to the below value</t>
+    </r>
+  </si>
+  <si>
+    <t>target when not pressed</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>target when fully pressed</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Step 11</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Calibration finished, connect the throttle motor and check the behaviour.</t>
+    </r>
+  </si>
+  <si>
     <t>Hints:</t>
   </si>
   <si>
-    <t>Throttle sensor voltage when fully closed</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t>- DO NOT connect throttle motor yet!</t>
-  </si>
-  <si>
-    <t>Throttle sensor voltage when fully oppened</t>
-  </si>
-  <si>
-    <t>Step 2</t>
+    <t>- DO NOT connect throttle motor before the calibration is finished!</t>
   </si>
   <si>
     <t>- "pot" = "potentiometer"</t>
   </si>
   <si>
-    <t>required gain for throttle input</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>Calibration procedure to get you in the ball park:</t>
-  </si>
-  <si>
-    <t>required offset for throttle input</t>
-  </si>
-  <si>
-    <t>Step 5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 0</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - connect the throttle and gas pedal inputs and power to the board (power meaning +5V and GND). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Keep the throttle closed and measure the voltage at </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">TH </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>input. Put the measured value into the field below.</t>
-    </r>
-  </si>
-  <si>
-    <t>Throttle sensor voltage range</t>
-  </si>
-  <si>
-    <t>calculated</t>
-  </si>
-  <si>
-    <t>target when closed</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 2</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Keep the throttle oppened manually and measure the voltage at </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">TH </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>input. Put the measured vakue into the field below.</t>
-    </r>
-  </si>
-  <si>
-    <t>target when oppened</t>
-  </si>
-  <si>
-    <t>Step 7</t>
-  </si>
-  <si>
-    <t>target range</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 3</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Keep the gas pedal not pressed and measure the voltage at </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">GP </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>input. Put the measured value into the field below.</t>
-    </r>
-  </si>
-  <si>
-    <t>series diode offset</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 4</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Keep the throttle oppened manually and measure the voltage at TH input. Put the measured vakue into the field below.</t>
-    </r>
-  </si>
-  <si>
-    <t>Gas pedal</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 5</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - using pot </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>PR2</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> set the voltage in test point </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> to the below value</t>
-    </r>
-  </si>
-  <si>
-    <t>Gas pedal voltage when not pressed</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>Gas pedal voltage when fully pressed</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 6</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - with closed throttle use </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>PR1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> to set the voltage at test point </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> to the below value</t>
-    </r>
-  </si>
-  <si>
-    <t>required gain for gas pedal input</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 7</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - open the throttle manually and check voltage at test point </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>, it should be close to the below value</t>
-    </r>
-  </si>
-  <si>
-    <t>required offset gas pedal input</t>
-  </si>
-  <si>
-    <t>Step 8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 8</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">- using pot </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>PR4</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> set the voltage in test point </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> to the below value</t>
-    </r>
-  </si>
-  <si>
-    <t>Gas pedal voltage range</t>
-  </si>
-  <si>
-    <t>target when not pressed</t>
-  </si>
-  <si>
-    <t>Step 9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 9</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - with gas pedal de-pressed use PR3 to set the voltage at test point </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> to the below value</t>
-    </r>
-  </si>
-  <si>
-    <t>target when fully pressed</t>
-  </si>
-  <si>
-    <t>Step 10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 10</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - press the gas pedal and check voltage at test point </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>, it should be close to the below value</t>
-    </r>
+    <t>In case of questions please email: dstagegarage@gmail.com</t>
+  </si>
+  <si>
+    <t>- if you turn pot PR2 all the way up or down and still cannot get the voltage from step 5 you may have to lower the values of R30 and R31</t>
+  </si>
+  <si>
+    <t>- if you turn pot PR4 all the way up or down and still cannot get the voltage from step 8 you may have to lower the values of R32 and R33</t>
+  </si>
+  <si>
+    <t>- if the throttle is unstable and "flaps" you maymodify the gain of the controller for example by lowering value of R7 and/or increasing R8 (lowers the gain)</t>
   </si>
   <si>
     <t>k</t>
@@ -575,16 +604,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Google Sans Mono&quot;"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Google Sans Mono&quot;"/>
     </font>
   </fonts>
   <fills count="13">
@@ -686,15 +715,15 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="2" xfId="0" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -959,425 +988,450 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
-        <f>G9</f>
+        <f>G6</f>
         <v>0.885</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <f>G8</f>
+        <v>4.75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
-        <f>G11</f>
-        <v>4.75</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5">
+      <c r="B5" s="7"/>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="6"/>
-    </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <f>B12/B9</f>
         <v>0.7761966365</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>15</v>
+      <c r="G6" s="5">
+        <v>0.885</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9">
         <f>(B10-B13+B6*B3)/(B6+1)</f>
         <v>2.571187181</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="8">
-      <c r="B8" s="6"/>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
+      <c r="B8" s="7"/>
+      <c r="G8" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="13">
         <f>B4-B3</f>
         <v>3.865</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.885</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="15">
         <v>4.0</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
+      <c r="G10" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="15">
         <v>1.0</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5">
-        <v>4.75</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="16">
         <f>B10-B11</f>
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="15">
         <v>0.12</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="G14" s="3" t="s">
-        <v>31</v>
+      <c r="G14" s="17">
+        <f>B7</f>
+        <v>2.571187181</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
-      <c r="G15" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>6</v>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="G16" s="19">
+        <f>B10</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5">
+        <f>G10</f>
+        <v>1.2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="5">
-        <f>G13</f>
-        <v>1.2</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="17">
-        <f>B7</f>
-        <v>2.571187181</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5">
+        <f>G12</f>
+        <v>3.5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="5">
-        <f>G15</f>
-        <v>3.5</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="19">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="G19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="3" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="G19" s="19">
-        <f>B10</f>
-        <v>4</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <f>B26/B23</f>
         <v>1.282608696</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>40</v>
+      <c r="G20" s="17">
+        <f>B21</f>
+        <v>2.374095238</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="8">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9">
         <f>(B24-B27+B20*B17)/(B20+1)</f>
         <v>2.374095238</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="19">
-        <f>B11</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22">
-      <c r="G22" s="3" t="s">
-        <v>43</v>
+      <c r="G22" s="19">
+        <f>B24</f>
+        <v>4</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="13">
         <f>B18-B17</f>
         <v>2.3</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="17">
-        <f>B21</f>
-        <v>2.374095238</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="15">
         <v>4.0</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="G24" s="19">
+        <f>B25</f>
+        <v>1.05</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="15">
         <v>1.05</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="19">
-        <f>B24</f>
-        <v>4</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="16">
         <f>B24-B25</f>
         <v>2.95</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="15">
         <v>0.12</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="19">
-        <f>B25</f>
-        <v>1.05</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="G29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="G31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1397,132 +1451,132 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3">
         <v>1.28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3">
         <v>4.0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3">
         <v>2.5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3">
         <v>1.0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G4" s="21">
         <f>G2-G3</f>
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3">
         <v>1.2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3">
         <v>3.5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G6" s="3">
         <v>3.5</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G7" s="3">
         <v>1.2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B8" s="21">
         <f t="shared" ref="B8:B9" si="1">B$2*(B$3-B5)+B$3</f>
         <v>4.164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G8" s="21">
         <f>G6-G7</f>
         <v>2.3</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B9" s="21">
         <f t="shared" si="1"/>
         <v>1.22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G10" s="22">
         <f>G4/G8</f>
@@ -1531,7 +1585,7 @@
     </row>
     <row r="11">
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G11" s="22">
         <f>G6*G10</f>
@@ -1540,7 +1594,7 @@
     </row>
     <row r="12">
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G12" s="22">
         <f>G7*G10</f>
@@ -1549,7 +1603,7 @@
     </row>
     <row r="13">
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G13" s="22">
         <f>G6*G10-G2</f>
@@ -1558,7 +1612,7 @@
     </row>
     <row r="14">
       <c r="F14" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G14" s="22">
         <f>G7*G10-G3</f>

--- a/ETC v2/v2.2/DStage_ETC_v2.2_calibration.xlsx
+++ b/ETC v2/v2.2/DStage_ETC_v2.2_calibration.xlsx
@@ -136,7 +136,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>input. Put the measured vakue into the field below.</t>
+      <t>input. Put the measured value into the field below.</t>
     </r>
   </si>
   <si>
@@ -196,17 +196,24 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>Step 4</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> - Keep the throttle oppened manually and measure the voltage at TH input. Put the measured vakue into the field below.</t>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Step 4 - Keep the gas pedal fully pressed and measure the voltage at </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">GP </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>input. Put the measured value into the field below.</t>
     </r>
   </si>
   <si>
@@ -407,7 +414,7 @@
     <t>required gain for gas pedal input</t>
   </si>
   <si>
-    <t>required offset gas pedal input</t>
+    <t>required offset for gas pedal input</t>
   </si>
   <si>
     <t>Step 8</t>
